--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3976.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3976.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253830694319892</v>
+        <v>1.606816530227661</v>
       </c>
       <c r="B1">
-        <v>2.652748376092763</v>
+        <v>1.272009968757629</v>
       </c>
       <c r="C1">
-        <v>5.471807525307582</v>
+        <v>1.680297017097473</v>
       </c>
       <c r="D1">
-        <v>3.050176571800021</v>
+        <v>2.54114556312561</v>
       </c>
       <c r="E1">
-        <v>1.350615007820964</v>
+        <v>6.473733901977539</v>
       </c>
     </row>
   </sheetData>
